--- a/22prediction.xlsx
+++ b/22prediction.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>69.01898193359375</v>
+        <v>64.48524475097656</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>69.00774383544922</v>
+        <v>64.36347961425781</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68.98468780517578</v>
+        <v>64.34387969970703</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68.95387268066406</v>
+        <v>64.41368865966797</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>68.91911315917969</v>
+        <v>64.45804595947266</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>68.88478088378906</v>
+        <v>64.50410461425781</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>68.85433959960938</v>
+        <v>64.52850341796875</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68.82890319824219</v>
+        <v>64.48892211914062</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68.80881500244141</v>
+        <v>64.450927734375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68.79348754882812</v>
+        <v>64.42198181152344</v>
       </c>
     </row>
   </sheetData>
